--- a/medicine/Psychotrope/Zwickelbier/Zwickelbier.xlsx
+++ b/medicine/Psychotrope/Zwickelbier/Zwickelbier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Zwickelbier ou Kellerbier ou Zoigl est une bière de fermentation basse ni filtrée ni pasteurisée, comprenant environ 5 % d'alcool selon les brasseries. C'est une variété effervescente de Kellerbier, moins forte et moins amère. Son nom provient du robinet monté sur une cuve de brassage permettant d'en tester la qualité.
 La Zwickelbier est originaire de Franconie en Bavière. Aujourd'hui, elle est brassée dans différentes régions de l'Allemagne, de l'Autriche et de la Suisse alémanique, entre autres à Montjoie en Rhénanie-du-Nord-Westphalie.
@@ -514,7 +526,9 @@
           <t>Brassage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ingrédients nécessaires au brassage de la Zwickelbier comprennent:
 eau
